--- a/Docs/개발문서.xlsx
+++ b/Docs/개발문서.xlsx
@@ -276,16 +276,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,7 +626,7 @@
   <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -653,727 +653,727 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="3" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>7</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>11</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>12</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>13</v>
       </c>
-      <c r="P5" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3">
         <v>15</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>16</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>17</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>18</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>19</v>
       </c>
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8" t="s">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8" t="s">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8" t="s">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8" t="s">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8" t="s">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="L6:O6"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
